--- a/cleanup-gh-pages/StructureDefinition-mii-pr-prozedur-procedure.xlsx
+++ b/cleanup-gh-pages/StructureDefinition-mii-pr-prozedur-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-08</t>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1290,10 +1290,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
+    <t>Kontakt (Aufenthaltsbezug)</t>
+  </si>
+  <si>
+    <t>Kontakt, während dem die Prozedur durchgeführt wurde oder mit dem die Prozedur in Zusammenhang steht.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
@@ -9456,7 +9456,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>406</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>77</v>
